--- a/Review task/BERT_topics.xlsx
+++ b/Review task/BERT_topics.xlsx
@@ -468,21 +468,21 @@
         <v>-1</v>
       </c>
       <c r="C2" t="n">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-1_twice_nail_red_reliable</t>
+          <t>-1_safely_extrafast_organize_halfbenjamin</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['twice', 'nail', 'red', 'reliable', 'disc', 'finally', 'stay', 'usage', 'however', 'find']</t>
+          <t>['safely', 'extrafast', 'organize', 'halfbenjamin', 'lead', 'recovery', 'packaging', 'ton', 'believe', 'install']</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>['however come twice old wd red disc', 'however come twice old wd red disc', 'however come twice old wd red disc']</t>
+          <t>['love use organize storage transfer safely computer', 'love use organize storage transfer safely computer', 'love use organize storage transfer safely computer']</t>
         </is>
       </c>
     </row>
@@ -650,7 +650,7 @@
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>217</v>
+        <v>185</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -732,17 +732,17 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>9_super_install_easy_</t>
+          <t>9_definitely_recommend__</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>['super', 'install', 'easy', '', '', '', '', '', '', '']</t>
+          <t>['definitely', 'recommend', '', '', '', '', '', '', '', '']</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>['super easy install', 'super easy install', 'super easy install']</t>
+          <t>['definitely recommend', 'definitely recommend', 'definitely recommend']</t>
         </is>
       </c>
     </row>
@@ -758,17 +758,17 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>10_definitely_recommend__</t>
+          <t>10_super_install_easy_</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>['definitely', 'recommend', '', '', '', '', '', '', '', '']</t>
+          <t>['super', 'install', 'easy', '', '', '', '', '', '', '']</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>['definitely recommend', 'definitely recommend', 'definitely recommend']</t>
+          <t>['super easy install', 'super easy install', 'super easy install']</t>
         </is>
       </c>
     </row>
@@ -810,17 +810,17 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>12_far_good__</t>
+          <t>12_absolutely_love__</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>['far', 'good', '', '', '', '', '', '', '', '']</t>
+          <t>['absolutely', 'love', '', '', '', '', '', '', '', '']</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>['far good', 'far good', 'far good']</t>
+          <t>['absolutely love', 'absolutely love', 'absolutely love']</t>
         </is>
       </c>
     </row>
@@ -836,17 +836,17 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>13_absolutely_love__</t>
+          <t>13_far_good__</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>['absolutely', 'love', '', '', '', '', '', '', '', '']</t>
+          <t>['far', 'good', '', '', '', '', '', '', '', '']</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>['absolutely love', 'absolutely love', 'absolutely love']</t>
+          <t>['far good', 'far good', 'far good']</t>
         </is>
       </c>
     </row>
@@ -884,21 +884,21 @@
         <v>15</v>
       </c>
       <c r="C18" t="n">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>15_super_fast__</t>
+          <t>15_reliable_fast__</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>['super', 'fast', '', '', '', '', '', '', '', '']</t>
+          <t>['reliable', 'fast', '', '', '', '', '', '', '', '']</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>['super fast', 'super fast', 'super fast']</t>
+          <t>['fast reliable', 'fast reliable', 'fast reliable']</t>
         </is>
       </c>
     </row>
@@ -914,17 +914,17 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>16_pro___</t>
+          <t>16_super_fast__</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>['pro', '', '', '', '', '', '', '', '', '']</t>
+          <t>['super', 'fast', '', '', '', '', '', '', '', '']</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>['pro', 'pro', 'pro']</t>
+          <t>['super fast', 'super fast', 'super fast']</t>
         </is>
       </c>
     </row>
@@ -962,21 +962,21 @@
         <v>18</v>
       </c>
       <c r="C21" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>18_bill_fit__</t>
+          <t>18_pro___</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>['bill', 'fit', '', '', '', '', '', '', '', '']</t>
+          <t>['pro', '', '', '', '', '', '', '', '', '']</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>['fit bill', 'fit bill', 'fit bill']</t>
+          <t>['pro', 'pro', 'pro']</t>
         </is>
       </c>
     </row>
@@ -1014,21 +1014,21 @@
         <v>20</v>
       </c>
       <c r="C23" t="n">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>20_purchase___</t>
+          <t>20_bill_fit__</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>['purchase', '', '', '', '', '', '', '', '', '']</t>
+          <t>['bill', 'fit', '', '', '', '', '', '', '', '']</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>['purchase', 'purchase', 'purchase']</t>
+          <t>['fit bill', 'fit bill', 'fit bill']</t>
         </is>
       </c>
     </row>
@@ -1044,17 +1044,17 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>21_recommend_buy__</t>
+          <t>21_purchase___</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>['recommend', 'buy', '', '', '', '', '', '', '', '']</t>
+          <t>['purchase', '', '', '', '', '', '', '', '', '']</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>['recommend buy', 'recommend buy', 'recommend buy']</t>
+          <t>['purchase', 'purchase', 'purchase']</t>
         </is>
       </c>
     </row>
@@ -1066,21 +1066,21 @@
         <v>22</v>
       </c>
       <c r="C25" t="n">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>22_issue___</t>
+          <t>22_recommend_buy__</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>['issue', '', '', '', '', '', '', '', '', '']</t>
+          <t>['recommend', 'buy', '', '', '', '', '', '', '', '']</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>['issue', 'issue', 'issue']</t>
+          <t>['recommend buy', 'recommend buy', 'recommend buy']</t>
         </is>
       </c>
     </row>
@@ -1092,21 +1092,21 @@
         <v>23</v>
       </c>
       <c r="C26" t="n">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>23_perfect___</t>
+          <t>23_issue___</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>['perfect', '', '', '', '', '', '', '', '', '']</t>
+          <t>['issue', '', '', '', '', '', '', '', '', '']</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>['perfect', 'perfect', 'perfect']</t>
+          <t>['issue', 'issue', 'issue']</t>
         </is>
       </c>
     </row>
@@ -1122,17 +1122,17 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>24_drive___</t>
+          <t>24_flawlessly_work__</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>['drive', '', '', '', '', '', '', '', '', '']</t>
+          <t>['flawlessly', 'work', '', '', '', '', '', '', '', '']</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>['drive', 'drive', 'drive']</t>
+          <t>['work flawlessly', 'work flawlessly', 'work flawlessly']</t>
         </is>
       </c>
     </row>
@@ -1148,17 +1148,17 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>25_flawlessly_work__</t>
+          <t>25_drive___</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>['flawlessly', 'work', '', '', '', '', '', '', '', '']</t>
+          <t>['drive', '', '', '', '', '', '', '', '', '']</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>['work flawlessly', 'work flawlessly', 'work flawlessly']</t>
+          <t>['drive', 'drive', 'drive']</t>
         </is>
       </c>
     </row>
@@ -1170,21 +1170,21 @@
         <v>26</v>
       </c>
       <c r="C29" t="n">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>26_happy_purchase__</t>
+          <t>26_perfect___</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>['happy', 'purchase', '', '', '', '', '', '', '', '']</t>
+          <t>['perfect', '', '', '', '', '', '', '', '', '']</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>['m happy purchase', 'm happy purchase', 'm happy purchase']</t>
+          <t>['perfect', 'perfect', 'perfect']</t>
         </is>
       </c>
     </row>
@@ -1222,21 +1222,21 @@
         <v>28</v>
       </c>
       <c r="C31" t="n">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>28_love_product__</t>
+          <t>28_happy_purchase__</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>['love', 'product', '', '', '', '', '', '', '', '']</t>
+          <t>['happy', 'purchase', '', '', '', '', '', '', '', '']</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>['love product', 'love product', 'love product']</t>
+          <t>['m happy purchase', 'm happy purchase', 'm happy purchase']</t>
         </is>
       </c>
     </row>
@@ -1248,21 +1248,21 @@
         <v>29</v>
       </c>
       <c r="C32" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>29_happy_purchase__</t>
+          <t>29_love_product__</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>['happy', 'purchase', '', '', '', '', '', '', '', '']</t>
+          <t>['love', 'product', '', '', '', '', '', '', '', '']</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>['happy purchase', 'happy purchase', 'happy purchase']</t>
+          <t>['love product', 'love product', 'love product']</t>
         </is>
       </c>
     </row>
@@ -1274,21 +1274,21 @@
         <v>30</v>
       </c>
       <c r="C33" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>30_readswrite_bag_extremely_perfect</t>
+          <t>30_happy_purchase__</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>['readswrite', 'bag', 'extremely', 'perfect', 'laptop', 'fast', '', '', '', '']</t>
+          <t>['happy', 'purchase', '', '', '', '', '', '', '', '']</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>['readswrite extremely fast perfect laptop bag', 'readswrite extremely fast perfect laptop bag', 'readswrite extremely fast perfect laptop bag']</t>
+          <t>['happy purchase', 'happy purchase', 'happy purchase']</t>
         </is>
       </c>
     </row>
@@ -1300,21 +1300,21 @@
         <v>31</v>
       </c>
       <c r="C34" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>31_impressive___</t>
+          <t>31_readswrite_bag_extremely_perfect</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>['impressive', '', '', '', '', '', '', '', '', '']</t>
+          <t>['readswrite', 'bag', 'extremely', 'perfect', 'laptop', 'fast', '', '', '', '']</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>['impressive', 'impressive', 'impressive']</t>
+          <t>['readswrite extremely fast perfect laptop bag', 'readswrite extremely fast perfect laptop bag', 'readswrite extremely fast perfect laptop bag']</t>
         </is>
       </c>
     </row>
@@ -1326,21 +1326,21 @@
         <v>32</v>
       </c>
       <c r="C35" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>32_perfectly_work__</t>
+          <t>32_impressive___</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>['perfectly', 'work', '', '', '', '', '', '', '', '']</t>
+          <t>['impressive', '', '', '', '', '', '', '', '', '']</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>['work perfectly', 'work perfectly', 'work perfectly']</t>
+          <t>['impressive', 'impressive', 'impressive']</t>
         </is>
       </c>
     </row>
@@ -1352,21 +1352,21 @@
         <v>33</v>
       </c>
       <c r="C36" t="n">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>33_play_plug__</t>
+          <t>33_perfectly_work__</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>['play', 'plug', '', '', '', '', '', '', '', '']</t>
+          <t>['perfectly', 'work', '', '', '', '', '', '', '', '']</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>['plug n play', 'plug n play', 'plug n play']</t>
+          <t>['work perfectly', 'work perfectly', 'work perfectly']</t>
         </is>
       </c>
     </row>
@@ -1378,21 +1378,21 @@
         <v>34</v>
       </c>
       <c r="C37" t="n">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>34_sandisk_product_great_</t>
+          <t>34_play_plug__</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>['sandisk', 'product', 'great', '', '', '', '', '', '', '']</t>
+          <t>['play', 'plug', '', '', '', '', '', '', '', '']</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>['great product sandisk', 'great product sandisk', 'great product sandisk']</t>
+          <t>['plug n play', 'plug n play', 'plug n play']</t>
         </is>
       </c>
     </row>
@@ -1434,17 +1434,17 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>36_lot_transfer_easy_speed</t>
+          <t>36_need___</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>['lot', 'transfer', 'easy', 'speed', 'storage', 'use', '', '', '', '']</t>
+          <t>['need', '', '', '', '', '', '', '', '', '']</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>['lot storage easy use transfer speed', 'lot storage easy use transfer speed', 'lot storage easy use transfer speed']</t>
+          <t>['need', 'need', 'need']</t>
         </is>
       </c>
     </row>
@@ -1460,17 +1460,17 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>37_advertise_hold_lot_run</t>
+          <t>37_retrieve_windowssystem_regularly_buffer</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>['advertise', 'hold', 'lot', 'run', 'datum', 'fast', '', '', '', '']</t>
+          <t>['retrieve', 'windowssystem', 'regularly', 'buffer', 'certain', 'information', 'mb', 'quickly', 'application', 'size']</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>['hold lot datum run fast advertise', 'hold lot datum run fast advertise', 'hold lot datum run fast advertise']</t>
+          <t>['mb buffer size great windowssystem drive retrieve information regularly make certain application load much quickly', 'mb buffer size great windowssystem drive retrieve information regularly make certain application load much quickly', 'mb buffer size great windowssystem drive retrieve information regularly make certain application load much quickly']</t>
         </is>
       </c>
     </row>
@@ -1486,17 +1486,17 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>38_component_rig_build_highly</t>
+          <t>38_fraction_window_boot_take</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>['component', 'rig', 'build', 'highly', 'upgrade', 'old', 'recommend', 'new', 'drive', '']</t>
+          <t>['fraction', 'window', 'boot', 'take', 'time', 'use', '', '', '', '']</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>['build new rig upgrade old component highly recommend drive', 'build new rig upgrade old component highly recommend drive', 'build new rig upgrade old component highly recommend drive']</t>
+          <t>['boot window take fraction time use', 'boot window take fraction time use', 'boot window take fraction time use']</t>
         </is>
       </c>
     </row>
@@ -1512,17 +1512,17 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>39_recording_tend_anymore_usually</t>
+          <t>39_mediation_lawsuit_information_picture</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>['recording', 'tend', 'anymore', 'usually', 'music', 'ssds', 'gaming', 'hold', 'never', 'lot']</t>
+          <t>['mediation', 'lawsuit', 'information', 'picture', 'hold', 'need', '', '', '', '']</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>['usually never use recommend hdd anymore tend lot gaming music recording want drive hold photo video music file use ssds', 'usually never use recommend hdd anymore tend lot gaming music recording want drive hold photo video music file use ssds', 'usually never use recommend hdd anymore tend lot gaming music recording want drive hold photo video music file use ssds']</t>
+          <t>['hold information picture need lawsuit mediation', 'hold information picture need lawsuit mediation', 'hold information picture need lawsuit mediation']</t>
         </is>
       </c>
     </row>
@@ -1538,17 +1538,17 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>40_retrieve_windowssystem_regularly_buffer</t>
+          <t>40_login_control_fingerprint_redirect</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>['retrieve', 'windowssystem', 'regularly', 'buffer', 'certain', 'information', 'mb', 'quickly', 'application', 'size']</t>
+          <t>['login', 'control', 'fingerprint', 'redirect', 'fanless', 'pin', 'safety', 'indication', 'iteration', 'progress']</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>['mb buffer size great windowssystem drive retrieve information regularly make certain application load much quickly', 'mb buffer size great windowssystem drive retrieve information regularly make certain application load much quickly', 'mb buffer size great windowssystem drive retrieve information regularly make certain application load much quickly']</t>
+          <t>['pro attractive design place nearly anywhere fanless ventilation quiet provide access file anywhere back certain cloud storage mobile device provide multi user access fingerprint login option control access offer dual drive option improve file safety setup easy remote access require knowledge networking con user login cloud system indication progress backup email complete backup photo video mobile device desktop program offer several application tell require purchase legacy desktop program mostly redirect website match modern desktop application drive letter desktop fix main account view control file drive option encrypt file drive pin access control option mobile limit compare traditional software overly basic different desktop mobile western digital cloud home late iteration series networkattache drive', 'pro attractive design place nearly anywhere fanless ventilation quiet provide access file anywhere back certain cloud storage mobile device provide multi user access fingerprint login option control access offer dual drive option improve file safety setup easy remote access require knowledge networking con user login cloud system indication progress backup email complete backup photo video mobile device desktop program offer several application tell require purchase legacy desktop program mostly redirect website match modern desktop application drive letter desktop fix main account view control file drive option encrypt file drive pin access control option mobile limit compare traditional software overly basic different desktop mobile western digital cloud home late iteration series networkattache drive', 'pro attractive design place nearly anywhere fanless ventilation quiet provide access file anywhere back certain cloud storage mobile device provide multi user access fingerprint login option control access offer dual drive option improve file safety setup easy remote access require knowledge networking con user login cloud system indication progress backup email complete backup photo video mobile device desktop program offer several application tell require purchase legacy desktop program mostly redirect website match modern desktop application drive letter desktop fix main account view control file drive option encrypt file drive pin access control option mobile limit compare traditional software overly basic different desktop mobile western digital cloud home late iteration series networkattache drive']</t>
         </is>
       </c>
     </row>
@@ -1564,17 +1564,17 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>41_tad_bias_barracuda_probably</t>
+          <t>41_half_almost_amazing_portable</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>['tad', 'bias', 'barracuda', 'probably', 'seagate', 'year', 'use', '', '', '']</t>
+          <t>['half', 'almost', 'amazing', 'portable', 'small', 'device', 'get', '', '', '']</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>['tad bias use seagate barracuda probably year', 'tad bias use seagate barracuda probably year', 'tad bias use seagate barracuda probably year']</t>
+          <t>['amazing get almost half small portable device', 'amazing get almost half small portable device', 'amazing get almost half small portable device']</t>
         </is>
       </c>
     </row>
@@ -1590,17 +1590,17 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>42_mbr_gpt_plan_sure</t>
+          <t>42_recording_tend_anymore_usually</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>['mbr', 'gpt', 'plan', 'sure', 'disk', 'format', 'boot', 'drive', 'use', '']</t>
+          <t>['recording', 'tend', 'anymore', 'usually', 'music', 'ssds', 'gaming', 'hold', 'never', 'lot']</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>['sure drive format gpt disk mbr plan use drive boot drive', 'sure drive format gpt disk mbr plan use drive boot drive', 'sure drive format gpt disk mbr plan use drive boot drive']</t>
+          <t>['usually never use recommend hdd anymore tend lot gaming music recording want drive hold photo video music file use ssds', 'usually never use recommend hdd anymore tend lot gaming music recording want drive hold photo video music file use ssds', 'usually never use recommend hdd anymore tend lot gaming music recording want drive hold photo video music file use ssds']</t>
         </is>
       </c>
     </row>
@@ -1616,17 +1616,17 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>43_stdm_datasheet_number_online</t>
+          <t>43_lot_transfer_easy_speed</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>['stdm', 'datasheet', 'number', 'online', 'model', 'want', 'look', 'drive', '', '']</t>
+          <t>['lot', 'transfer', 'easy', 'speed', 'storage', 'use', '', '', '', '']</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>['drive model number stdm want look datasheet online', 'drive model number stdm want look datasheet online', 'drive model number stdm want look datasheet online']</t>
+          <t>['lot storage easy use transfer speed', 'lot storage easy use transfer speed', 'lot storage easy use transfer speed']</t>
         </is>
       </c>
     </row>
@@ -1642,17 +1642,17 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>44_note___</t>
+          <t>44_spreadout_area_platter_seek</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>['note', '', '', '', '', '', '', '', '', '']</t>
+          <t>['spreadout', 'area', 'platter', 'seek', 'physical', 'multiple', 'mean', 'less', 'quick', 'time']</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>['note', 'note', 'note']</t>
+          <t>['mean less physical area datum spreadout seek time quick drive multiple platter', 'mean less physical area datum spreadout seek time quick drive multiple platter', 'mean less physical area datum spreadout seek time quick drive multiple platter']</t>
         </is>
       </c>
     </row>
@@ -1668,17 +1668,17 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>45_translate_hopefully_service_life</t>
+          <t>45_compose_face_platter_single</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>['translate', 'hopefully', 'service', 'life', 'long', '', '', '', '', '']</t>
+          <t>['compose', 'face', 'platter', 'single', 'drive', '', '', '', '', '']</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>['hopefully translate long service life', 'hopefully translate long service life', 'hopefully translate long service life']</t>
+          <t>['drive compose single platter face', 'drive compose single platter face', 'drive compose single platter face']</t>
         </is>
       </c>
     </row>
@@ -1694,17 +1694,17 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>46_inherently_degrade_lightly_mention</t>
+          <t>46_static_fairly_rpm_lot</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>['inherently', 'degrade', 'lightly', 'mention', 'long', 'last', 'decent', 'experience', 'hold', 'flash']</t>
+          <t>['static', 'fairly', 'rpm', 'lot', 'old', 'great', 'storage', 'fast', '', '']</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>['decent desktop computer drive much slow ssd mention hard drive inherently hold datum much long experience lightly use hard drive last far long flash storage degrade year', 'decent desktop computer drive much slow ssd mention hard drive inherently hold datum much long experience lightly use hard drive last far long flash storage degrade year', 'decent desktop computer drive much slow ssd mention hard drive inherently hold datum much long experience lightly use hard drive last far long flash storage degrade year']</t>
+          <t>['great fairly static storage lot fast old rpm', 'great fairly static storage lot fast old rpm', 'great fairly static storage lot fast old rpm']</t>
         </is>
       </c>
     </row>
@@ -1720,17 +1720,17 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>47_fraction_window_boot_take</t>
+          <t>47_usual_quieter_digital_western</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>['fraction', 'window', 'boot', 'take', 'time', 'use', '', '', '', '']</t>
+          <t>['usual', 'quieter', 'digital', 'western', 'hdd', 'fast', 'drive', '', '', '']</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>['boot window take fraction time use', 'boot window take fraction time use', 'boot window take fraction time use']</t>
+          <t>['drive quieter western digital drive usual fast hdd', 'drive quieter western digital drive usual fast hdd', 'drive quieter western digital drive usual fast hdd']</t>
         </is>
       </c>
     </row>
@@ -1746,17 +1746,17 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>48_static_fairly_rpm_lot</t>
+          <t>48_advertise_hold_lot_run</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>['static', 'fairly', 'rpm', 'lot', 'old', 'great', 'storage', 'fast', '', '']</t>
+          <t>['advertise', 'hold', 'lot', 'run', 'datum', 'fast', '', '', '', '']</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>['great fairly static storage lot fast old rpm', 'great fairly static storage lot fast old rpm', 'great fairly static storage lot fast old rpm']</t>
+          <t>['hold lot datum run fast advertise', 'hold lot datum run fast advertise', 'hold lot datum run fast advertise']</t>
         </is>
       </c>
     </row>
@@ -1772,17 +1772,17 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>49_ago_barracuda_seagate_year</t>
+          <t>49_sandisk_product_great_</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>['ago', 'barracuda', 'seagate', 'year', 'upgrade', 'old', 'drive', '', '', '']</t>
+          <t>['sandisk', 'product', 'great', '', '', '', '', '', '', '']</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>['upgrade old seagate barracuda drive year ago', 'upgrade old seagate barracuda drive year ago', 'upgrade old seagate barracuda drive year ago']</t>
+          <t>['great product sandisk', 'great product sandisk', 'great product sandisk']</t>
         </is>
       </c>
     </row>
@@ -1798,17 +1798,17 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>50_spreadout_area_platter_seek</t>
+          <t>50_subjective_object_agree_subtle</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>['spreadout', 'area', 'platter', 'seek', 'physical', 'multiple', 'mean', 'less', 'quick', 'time']</t>
+          <t>['subjective', 'object', 'agree', 'subtle', 'style', 'likely', 'attractive', 'place', 'design', 'people']</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>['mean less physical area datum spreadout seek time quick drive multiple platter', 'mean less physical area datum spreadout seek time quick drive multiple platter', 'mean less physical area datum spreadout seek time quick drive multiple platter']</t>
+          <t>['style subjective likely agree cloud home subtle attractive design people object place open', 'style subjective likely agree cloud home subtle attractive design people object place open', 'style subjective likely agree cloud home subtle attractive design people object place open']</t>
         </is>
       </c>
     </row>
@@ -1824,17 +1824,17 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>51_compose_face_platter_single</t>
+          <t>51_emphasis_appearance_typically_tech</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>['compose', 'face', 'platter', 'single', 'drive', '', '', '', '', '']</t>
+          <t>['emphasis', 'appearance', 'typically', 'tech', 'home', 'product', 'great', '', '', '']</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>['drive compose single platter face', 'drive compose single platter face', 'drive compose single platter face']</t>
+          <t>['tech product home typically great emphasis appearance', 'tech product home typically great emphasis appearance', 'tech product home typically great emphasis appearance']</t>
         </is>
       </c>
     </row>
@@ -1850,17 +1850,17 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>52_usual_quieter_digital_western</t>
+          <t>52_decent_seem_reliable_much</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>['usual', 'quieter', 'digital', 'western', 'hdd', 'fast', 'drive', '', '', '']</t>
+          <t>['decent', 'seem', 'reliable', 'much', 'price', 'work', 'great', 'fast', '', '']</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>['drive quieter western digital drive usual fast hdd', 'drive quieter western digital drive usual fast hdd', 'drive quieter western digital drive usual fast hdd']</t>
+          <t>['work great fast seem much reliable decent price', 'work great fast seem much reliable decent price', 'work great fast seem much reliable decent price']</t>
         </is>
       </c>
     </row>
@@ -1876,17 +1876,17 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>53_nt_pick_affordable_problem</t>
+          <t>53_targeting_audience_doubt_addition</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>['nt', 'pick', 'affordable', 'problem', 'amount', 'nice', 'store', 'hard', 'price', 'good']</t>
+          <t>['targeting', 'audience', 'doubt', 'addition', 'late', 'name', 'leave', 'version', 'western', 'home']</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>['hard drive affordable price good amount storage nt problem store pick nice', 'hard drive affordable price good amount storage nt problem store pick nice', 'hard drive affordable price good amount storage nt problem store pick nice']</t>
+          <t>['addition name home late version product doubt leave audience western targeting', 'addition name home late version product doubt leave audience western targeting', 'addition name home late version product doubt leave audience western targeting']</t>
         </is>
       </c>
     </row>
@@ -1902,17 +1902,17 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>54_need___</t>
+          <t>54_nt_pick_affordable_problem</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>['need', '', '', '', '', '', '', '', '', '']</t>
+          <t>['nt', 'pick', 'affordable', 'problem', 'amount', 'nice', 'store', 'hard', 'price', 'good']</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>['need', 'need', 'need']</t>
+          <t>['hard drive affordable price good amount storage nt problem store pick nice', 'hard drive affordable price good amount storage nt problem store pick nice', 'hard drive affordable price good amount storage nt problem store pick nice']</t>
         </is>
       </c>
     </row>
@@ -1928,17 +1928,17 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>55_half_almost_amazing_portable</t>
+          <t>55_perfect_simple_need_easy</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>['half', 'almost', 'amazing', 'portable', 'small', 'device', 'get', '', '', '']</t>
+          <t>['perfect', 'simple', 'need', 'easy', 'drive', '', '', '', '', '']</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>['amazing get almost half small portable device', 'amazing get almost half small portable device', 'amazing get almost half small portable device']</t>
+          <t>['drive perfect simple easy need', 'drive perfect simple easy need', 'drive perfect simple easy need']</t>
         </is>
       </c>
     </row>
@@ -1954,17 +1954,17 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>56_price_good__</t>
+          <t>56_ago_barracuda_seagate_year</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>['price', 'good', '', '', '', '', '', '', '', '']</t>
+          <t>['ago', 'barracuda', 'seagate', 'year', 'upgrade', 'old', 'drive', '', '', '']</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>['price good', 'price good', 'price good']</t>
+          <t>['upgrade old seagate barracuda drive year ago', 'upgrade old seagate barracuda drive year ago', 'upgrade old seagate barracuda drive year ago']</t>
         </is>
       </c>
     </row>
@@ -1980,17 +1980,17 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>57_mediation_lawsuit_information_picture</t>
+          <t>57_demos_business_crash_flash</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>['mediation', 'lawsuit', 'information', 'picture', 'hold', 'need', '', '', '', '']</t>
+          <t>['demos', 'business', 'crash', 'flash', 'video', 'system', 'old', 'product', 'use', 'drive']</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>['hold information picture need lawsuit mediation', 'hold information picture need lawsuit mediation', 'hold information picture need lawsuit mediation']</t>
+          <t>['business use video system product demos old flash drive crash', 'business use video system product demos old flash drive crash', 'business use video system product demos old flash drive crash']</t>
         </is>
       </c>
     </row>
@@ -2006,17 +2006,17 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>58_sturdy_plastic_seem_case</t>
+          <t>58_accessory_musthave_play_quick</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>['sturdy', 'plastic', 'seem', 'case', 'hard', '', '', '', '', '']</t>
+          <t>['accessory', 'musthave', 'play', 'quick', 'reliable', 'transfer', 'make', 'work', '', '']</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>['hard plastic case seem sturdy', 'hard plastic case seem sturdy', 'hard plastic case seem sturdy']</t>
+          <t>['quick reliable transfer make musthave accessory work play', 'quick reliable transfer make musthave accessory work play', 'quick reliable transfer make musthave accessory work play']</t>
         </is>
       </c>
     </row>
@@ -2032,17 +2032,17 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>59_flash_back_laptop_use</t>
+          <t>59_westgate_sandisc_site_web</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>['flash', 'back', 'laptop', 'use', 'drive', '', '', '', '', '']</t>
+          <t>['westgate', 'sandisc', 'site', 'web', 'cover', 'instruction', 'follow', 'set', 'product', 'hard']</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>['use flash drive back laptop', 'use flash drive back laptop', 'use flash drive back laptop']</t>
+          <t>['work great set instruction web hard follow site cover product westgate sandisc', 'work great set instruction web hard follow site cover product westgate sandisc', 'work great set instruction web hard follow site cover product westgate sandisc']</t>
         </is>
       </c>
     </row>
@@ -2058,17 +2058,17 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>60_maximum_accept_expansion_later</t>
+          <t>60_sale_flash_price_buy</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>['maximum', 'accept', 'expansion', 'later', 'tv', 'flash', 'find', 'drive', '', '']</t>
+          <t>['sale', 'flash', 'price', 'buy', 'drive', '', '', '', '', '']</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>['find later tv accept maximum flash drive expansion', 'find later tv accept maximum flash drive expansion', 'find later tv accept maximum flash drive expansion']</t>
+          <t>['buy flash drive sale price', 'buy flash drive sale price', 'buy flash drive sale price']</t>
         </is>
       </c>
     </row>
@@ -2084,17 +2084,17 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>61_fire_tv_expand_flash</t>
+          <t>61_buy_great__</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>['fire', 'tv', 'expand', 'flash', 'usb', 'buy', 'storage', 'drive', '', '']</t>
+          <t>['buy', 'great', '', '', '', '', '', '', '', '']</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>['buy usb flash drive expand storage fire tv', 'buy usb flash drive expand storage fire tv', 'buy usb flash drive expand storage fire tv']</t>
+          <t>['great buy', 'great buy', 'great buy']</t>
         </is>
       </c>
     </row>
@@ -2110,17 +2110,17 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>62_westgate_sandisc_site_web</t>
+          <t>62_hole_lanyard_end_add</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>['westgate', 'sandisc', 'site', 'web', 'cover', 'instruction', 'follow', 'set', 'product', 'hard']</t>
+          <t>['hole', 'lanyard', 'end', 'add', '', '', '', '', '', '']</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>['work great set instruction web hard follow site cover product westgate sandisc', 'work great set instruction web hard follow site cover product westgate sandisc', 'work great set instruction web hard follow site cover product westgate sandisc']</t>
+          <t>['add lanyard hole end', 'add lanyard hole end', 'add lanyard hole end']</t>
         </is>
       </c>
     </row>
@@ -2136,17 +2136,17 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>63_sale_flash_price_buy</t>
+          <t>63_sturdy_plastic_seem_case</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>['sale', 'flash', 'price', 'buy', 'drive', '', '', '', '', '']</t>
+          <t>['sturdy', 'plastic', 'seem', 'case', 'hard', '', '', '', '', '']</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>['buy flash drive sale price', 'buy flash drive sale price', 'buy flash drive sale price']</t>
+          <t>['hard plastic case seem sturdy', 'hard plastic case seem sturdy', 'hard plastic case seem sturdy']</t>
         </is>
       </c>
     </row>
@@ -2162,17 +2162,17 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>64_buy_great__</t>
+          <t>64_retractable_part_small_</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>['buy', 'great', '', '', '', '', '', '', '', '']</t>
+          <t>['retractable', 'part', 'small', '', '', '', '', '', '', '']</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>['great buy', 'great buy', 'great buy']</t>
+          <t>['small part retractable', 'small part retractable', 'small part retractable']</t>
         </is>
       </c>
     </row>
@@ -2188,17 +2188,17 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>65_hole_lanyard_end_add</t>
+          <t>65_confirm_watch_save_problem</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>['hole', 'lanyard', 'end', 'add', '', '', '', '', '', '']</t>
+          <t>['confirm', 'watch', 'save', 'problem', 'video', 'hold', 'write', 'store', 'read', 'much']</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>['add lanyard hole end', 'add lanyard hole end', 'add lanyard hole end']</t>
+          <t>['confirm much space hold use store video write speed good read speed fast problem watch video save', 'confirm much space hold use store video write speed good read speed fast problem watch video save', 'confirm much space hold use store video write speed good read speed fast problem watch video save']</t>
         </is>
       </c>
     </row>
@@ -2214,17 +2214,17 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>66_retractable_part_small_</t>
+          <t>66_spacious_entire_compact_life</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>['retractable', 'part', 'small', '', '', '', '', '', '', '']</t>
+          <t>['spacious', 'entire', 'compact', 'life', 'digital', 'perfect', 'store', '', '', '']</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>['small part retractable', 'small part retractable', 'small part retractable']</t>
+          <t>['compact spacious perfect store entire digital life', 'compact spacious perfect store entire digital life', 'compact spacious perfect store entire digital life']</t>
         </is>
       </c>
     </row>
@@ -2240,17 +2240,17 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>67_thumbflash_many_drive_</t>
+          <t>67_maximum_accept_expansion_later</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>['thumbflash', 'many', 'drive', '', '', '', '', '', '', '']</t>
+          <t>['maximum', 'accept', 'expansion', 'later', 'tv', 'flash', 'find', 'drive', '', '']</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>['many thumbflash drive', 'many thumbflash drive', 'many thumbflash drive']</t>
+          <t>['find later tv accept maximum flash drive expansion', 'find later tv accept maximum flash drive expansion', 'find later tv accept maximum flash drive expansion']</t>
         </is>
       </c>
     </row>
@@ -2266,17 +2266,17 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>68_confirm_watch_save_problem</t>
+          <t>68_impressed_sandisk_flash_usb</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>['confirm', 'watch', 'save', 'problem', 'video', 'hold', 'write', 'store', 'read', 'much']</t>
+          <t>['impressed', 'sandisk', 'flash', 'usb', 'drive', '', '', '', '', '']</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>['confirm much space hold use store video write speed good read speed fast problem watch video save', 'confirm much space hold use store video write speed good read speed fast problem watch video save', 'confirm much space hold use store video write speed good read speed fast problem watch video save']</t>
+          <t>['impressed sandisk usb flash drive', 'impressed sandisk usb flash drive', 'impressed sandisk usb flash drive']</t>
         </is>
       </c>
     </row>
@@ -2292,17 +2292,17 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>69_accessory_musthave_play_quick</t>
+          <t>69_heavy_quite_feel_size</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>['accessory', 'musthave', 'play', 'quick', 'reliable', 'transfer', 'make', 'work', '', '']</t>
+          <t>['heavy', 'quite', 'feel', 'size', '', '', '', '', '', '']</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>['quick reliable transfer make musthave accessory work play', 'quick reliable transfer make musthave accessory work play', 'quick reliable transfer make musthave accessory work play']</t>
+          <t>['size feel quite heavy', 'size feel quite heavy', 'size feel quite heavy']</t>
         </is>
       </c>
     </row>
@@ -2318,17 +2318,17 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>70_spacious_entire_compact_life</t>
+          <t>70_pretty_happy__</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>['spacious', 'entire', 'compact', 'life', 'digital', 'perfect', 'store', '', '', '']</t>
+          <t>['pretty', 'happy', '', '', '', '', '', '', '', '']</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>['compact spacious perfect store entire digital life', 'compact spacious perfect store entire digital life', 'compact spacious perfect store entire digital life']</t>
+          <t>['pretty happy', 'pretty happy', 'pretty happy']</t>
         </is>
       </c>
     </row>
@@ -2344,17 +2344,17 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>71_impressed_sandisk_flash_usb</t>
+          <t>71_hate_short_wait_sandisk</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>['impressed', 'sandisk', 'flash', 'usb', 'drive', '', '', '', '', '']</t>
+          <t>['hate', 'short', 'wait', 'sandisk', 'solid', 'lot', 'transfer', 'go', 'need', 'file']</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>['impressed sandisk usb flash drive', 'impressed sandisk usb flash drive', 'impressed sandisk usb flash drive']</t>
+          <t>['short need lot storage go hate wait file transfer sandisk ssd solid buy', 'short need lot storage go hate wait file transfer sandisk ssd solid buy', 'short need lot storage go hate wait file transfer sandisk ssd solid buy']</t>
         </is>
       </c>
     </row>
@@ -2370,17 +2370,17 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>72_odd_orient_initial_rather</t>
+          <t>72_opinion_expensive_worth_lot</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>['odd', 'orient', 'initial', 'rather', 'smartphone', 'seem', 'setup', 'home', 'make', 'easy']</t>
+          <t>['opinion', 'expensive', 'worth', 'lot', 'price', 'get', 'speed', 'storage', '', '']</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>['home seem smartphone orient make initial setup easy rather odd', 'home seem smartphone orient make initial setup easy rather odd', 'home seem smartphone orient make initial setup easy rather odd']</t>
+          <t>['price expensive get lot storage speed worth opinion', 'price expensive get lot storage speed worth opinion', 'price expensive get lot storage speed worth opinion']</t>
         </is>
       </c>
     </row>
@@ -2396,17 +2396,17 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>73_pretty_happy__</t>
+          <t>73_mess_setting_huge_software</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>['pretty', 'happy', '', '', '', '', '', '', '', '']</t>
+          <t>['mess', 'setting', 'huge', 'software', 'need', '', '', '', '', '']</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>['pretty happy', 'pretty happy', 'pretty happy']</t>
+          <t>['need mess setting software huge', 'need mess setting software huge', 'need mess setting software huge']</t>
         </is>
       </c>
     </row>
@@ -2422,17 +2422,17 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>74_hate_short_wait_sandisk</t>
+          <t>74_straight_away_phone_even</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>['hate', 'short', 'wait', 'sandisk', 'solid', 'lot', 'transfer', 'go', 'need', 'file']</t>
+          <t>['straight', 'away', 'phone', 'even', 'come', 'laptop', 'work', '', '', '']</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>['short need lot storage go hate wait file transfer sandisk ssd solid buy', 'short need lot storage go hate wait file transfer sandisk ssd solid buy', 'short need lot storage go hate wait file transfer sandisk ssd solid buy']</t>
+          <t>['come work straight away laptop even phone', 'come work straight away laptop even phone', 'come work straight away laptop even phone']</t>
         </is>
       </c>
     </row>
@@ -2448,17 +2448,17 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>75_convenient_really_small_fast</t>
+          <t>75_fire_tv_expand_flash</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>['convenient', 'really', 'small', 'fast', '', '', '', '', '', '']</t>
+          <t>['fire', 'tv', 'expand', 'flash', 'usb', 'buy', 'storage', 'drive', '', '']</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>['really fast small convenient', 'really fast small convenient', 'really fast small convenient']</t>
+          <t>['buy usb flash drive expand storage fire tv', 'buy usb flash drive expand storage fire tv', 'buy usb flash drive expand storage fire tv']</t>
         </is>
       </c>
     </row>
@@ -2474,17 +2474,17 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>76_event_prior_recently_sale</t>
+          <t>76_flash_back_laptop_use</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>['event', 'prior', 'recently', 'sale', 'purchase', 'buy', 'good', '', '', '']</t>
+          <t>['flash', 'back', 'laptop', 'use', 'drive', '', '', '', '', '']</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>['recently purchase good buy sale event prior', 'recently purchase good buy sale event prior', 'recently purchase good buy sale event prior']</t>
+          <t>['use flash drive back laptop', 'use flash drive back laptop', 'use flash drive back laptop']</t>
         </is>
       </c>
     </row>
@@ -2500,17 +2500,17 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>77_perfect_simple_need_easy</t>
+          <t>77_pinch_need__</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>['perfect', 'simple', 'need', 'easy', 'drive', '', '', '', '', '']</t>
+          <t>['pinch', 'need', '', '', '', '', '', '', '', '']</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>['drive perfect simple easy need', 'drive perfect simple easy need', 'drive perfect simple easy need']</t>
+          <t>['need pinch', 'need pinch', 'need pinch']</t>
         </is>
       </c>
     </row>
@@ -2526,17 +2526,17 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>78_corrupt_copy_try_drive</t>
+          <t>78_sandisk_usb_black_flash</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>['corrupt', 'copy', 'try', 'drive', '', '', '', '', '', '']</t>
+          <t>['sandisk', 'usb', 'black', 'flash', 'recommend', 'fast', 'drive', '', '', '']</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>['try copy drive corrupt', 'try copy drive corrupt', 'try copy drive corrupt']</t>
+          <t>['sandisk usb flash drive black usb fast recommend', 'sandisk usb flash drive black usb fast recommend', 'sandisk usb flash drive black usb fast recommend']</t>
         </is>
       </c>
     </row>
@@ -2552,17 +2552,17 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>79_decent_seem_reliable_much</t>
+          <t>79_overall_product_great_</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>['decent', 'seem', 'reliable', 'much', 'price', 'work', 'great', 'fast', '', '']</t>
+          <t>['overall', 'product', 'great', '', '', '', '', '', '', '']</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>['work great fast seem much reliable decent price', 'work great fast seem much reliable decent price', 'work great fast seem much reliable decent price']</t>
+          <t>['great product overall', 'great product overall', 'great product overall']</t>
         </is>
       </c>
     </row>
@@ -2578,17 +2578,17 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>80_demos_business_crash_flash</t>
+          <t>80_price_good__</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>['demos', 'business', 'crash', 'flash', 'video', 'system', 'old', 'product', 'use', 'drive']</t>
+          <t>['price', 'good', '', '', '', '', '', '', '', '']</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>['business use video system product demos old flash drive crash', 'business use video system product demos old flash drive crash', 'business use video system product demos old flash drive crash']</t>
+          <t>['price good', 'price good', 'price good']</t>
         </is>
       </c>
     </row>
@@ -2604,17 +2604,17 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>81_pinch_need__</t>
+          <t>81_room_decent_lot_speed</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>['pinch', 'need', '', '', '', '', '', '', '', '']</t>
+          <t>['room', 'decent', 'lot', 'speed', '', '', '', '', '', '']</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>['need pinch', 'need pinch', 'need pinch']</t>
+          <t>['decent speed lot room', 'decent speed lot room', 'decent speed lot room']</t>
         </is>
       </c>
     </row>
@@ -2630,17 +2630,17 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>82_overall_product_great_</t>
+          <t>82_component_rig_build_highly</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>['overall', 'product', 'great', '', '', '', '', '', '', '']</t>
+          <t>['component', 'rig', 'build', 'highly', 'upgrade', 'old', 'recommend', 'new', 'drive', '']</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>['great product overall', 'great product overall', 'great product overall']</t>
+          <t>['build new rig upgrade old component highly recommend drive', 'build new rig upgrade old component highly recommend drive', 'build new rig upgrade old component highly recommend drive']</t>
         </is>
       </c>
     </row>
@@ -2656,17 +2656,17 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>83_tbinstall_guide_youtube_soon</t>
+          <t>83_simple_usb_well_need</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>['tbinstall', 'guide', 'youtube', 'soon', 'probably', 'plenty', 'gb', 'super', 'know', 'year']</t>
+          <t>['simple', 'usb', 'well', 'need', 'work', 'drive', '', '', '', '']</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>['gb backup drive use year soon probably get upgrade tbinstall super easy plenty youtube guide know', 'gb backup drive use year soon probably get upgrade tbinstall super easy plenty youtube guide know', 'gb backup drive use year soon probably get upgrade tbinstall super easy plenty youtube guide know']</t>
+          <t>['need simple usb drive well work', 'need simple usb drive well work', 'need simple usb drive well work']</t>
         </is>
       </c>
     </row>
@@ -2682,17 +2682,17 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>84_room_decent_lot_speed</t>
+          <t>84_corrupt_copy_try_drive</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>['room', 'decent', 'lot', 'speed', '', '', '', '', '', '']</t>
+          <t>['corrupt', 'copy', 'try', 'drive', '', '', '', '', '', '']</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>['decent speed lot room', 'decent speed lot room', 'decent speed lot room']</t>
+          <t>['try copy drive corrupt', 'try copy drive corrupt', 'try copy drive corrupt']</t>
         </is>
       </c>
     </row>
@@ -2708,17 +2708,17 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>85_simple_usb_well_need</t>
+          <t>85_music_lot_photo_video</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>['simple', 'usb', 'well', 'need', 'work', 'drive', '', '', '', '']</t>
+          <t>['music', 'lot', 'photo', 'video', 'store', 'great', '', '', '', '']</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>['need simple usb drive well work', 'need simple usb drive well work', 'need simple usb drive well work']</t>
+          <t>['great store lot video music photo', 'great store lot video music photo', 'great store lot video music photo']</t>
         </is>
       </c>
     </row>
@@ -2734,17 +2734,17 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>86_music_lot_photo_video</t>
+          <t>86_atleast_useful_flash_year</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>['music', 'lot', 'photo', 'video', 'store', 'great', '', '', '', '']</t>
+          <t>['atleast', 'useful', 'flash', 'year', 'good', 'drive', '', '', '', '']</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>['great store lot video music photo', 'great store lot video music photo', 'great store lot video music photo']</t>
+          <t>['good useful flash drive atleast year', 'good useful flash drive atleast year', 'good useful flash drive atleast year']</t>
         </is>
       </c>
     </row>
@@ -2760,17 +2760,17 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>87_ton_storage__</t>
+          <t>87_convenient_really_small_fast</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>['ton', 'storage', '', '', '', '', '', '', '', '']</t>
+          <t>['convenient', 'really', 'small', 'fast', '', '', '', '', '', '']</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>['ton storage', 'ton storage', 'ton storage']</t>
+          <t>['really fast small convenient', 'really fast small convenient', 'really fast small convenient']</t>
         </is>
       </c>
     </row>
@@ -2786,17 +2786,17 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>88_sandisk_usb_black_flash</t>
+          <t>88_passive_cooing_annoying_sound</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>['sandisk', 'usb', 'black', 'flash', 'recommend', 'fast', 'drive', '', '', '']</t>
+          <t>['passive', 'cooing', 'annoying', 'sound', 'bottom', 'ventilation', 'mean', 'allow', 'slot', 'fan']</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>['sandisk usb flash drive black usb fast recommend', 'sandisk usb flash drive black usb fast recommend', 'sandisk usb flash drive black usb fast recommend']</t>
+          <t>['ventilation slot top bottom allow passive cooing mean annoying sound fan run', 'ventilation slot top bottom allow passive cooing mean annoying sound fan run', 'ventilation slot top bottom allow passive cooing mean annoying sound fan run']</t>
         </is>
       </c>
     </row>
@@ -2812,17 +2812,17 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>89_atleast_useful_flash_year</t>
+          <t>89_photo_store_easy_work</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>['atleast', 'useful', 'flash', 'year', 'good', 'drive', '', '', '', '']</t>
+          <t>['photo', 'store', 'easy', 'work', 'great', 'use', '', '', '', '']</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>['good useful flash drive atleast year', 'good useful flash drive atleast year', 'good useful flash drive atleast year']</t>
+          <t>['easy use work great store photo', 'easy use work great store photo', 'easy use work great store photo']</t>
         </is>
       </c>
     </row>
@@ -2838,17 +2838,17 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>90_safely_organize_love_transfer</t>
+          <t>90_retract_protection_part_able</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>['safely', 'organize', 'love', 'transfer', 'computer', 'storage', 'use', '', '', '']</t>
+          <t>['retract', 'protection', 'part', 'able', '', '', '', '', '', '']</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>['love use organize storage transfer safely computer', 'love use organize storage transfer safely computer', 'love use organize storage transfer safely computer']</t>
+          <t>['able retract part protection', 'able retract part protection', 'able retract part protection']</t>
         </is>
       </c>
     </row>
@@ -2864,17 +2864,17 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>91_photo_store_easy_work</t>
+          <t>91_one_perfectly_new_need</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>['photo', 'store', 'easy', 'work', 'great', 'use', '', '', '', '']</t>
+          <t>['one', 'perfectly', 'new', 'need', 'work', '', '', '', '', '']</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>['easy use work great store photo', 'easy use work great store photo', 'easy use work great store photo']</t>
+          <t>['need new one work perfectly', 'need new one work perfectly', 'need new one work perfectly']</t>
         </is>
       </c>
     </row>
@@ -2890,17 +2890,17 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>92_retract_protection_part_able</t>
+          <t>92_nearly_move_store_year</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>['retract', 'protection', 'part', 'able', '', '', '', '', '', '']</t>
+          <t>['nearly', 'move', 'store', 'year', 'computer', 'work', '', '', '', '']</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>['able retract part protection', 'able retract part protection', 'able retract part protection']</t>
+          <t>['move nearly work computer year store', 'move nearly work computer year store', 'move nearly work computer year store']</t>
         </is>
       </c>
     </row>
@@ -2916,17 +2916,17 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>93_one_perfectly_new_need</t>
+          <t>93_event_prior_recently_sale</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>['one', 'perfectly', 'new', 'need', 'work', '', '', '', '', '']</t>
+          <t>['event', 'prior', 'recently', 'sale', 'purchase', 'buy', 'good', '', '', '']</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>['need new one work perfectly', 'need new one work perfectly', 'need new one work perfectly']</t>
+          <t>['recently purchase good buy sale event prior', 'recently purchase good buy sale event prior', 'recently purchase good buy sale event prior']</t>
         </is>
       </c>
     </row>
@@ -2942,17 +2942,17 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>94_nearly_move_store_year</t>
+          <t>94_thumbflash_many_drive_</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>['nearly', 'move', 'store', 'year', 'computer', 'work', '', '', '', '']</t>
+          <t>['thumbflash', 'many', 'drive', '', '', '', '', '', '', '']</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>['move nearly work computer year store', 'move nearly work computer year store', 'move nearly work computer year store']</t>
+          <t>['many thumbflash drive', 'many thumbflash drive', 'many thumbflash drive']</t>
         </is>
       </c>
     </row>
@@ -2968,17 +2968,17 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>95_barracuda_always_hdd_come</t>
+          <t>95_inherently_degrade_lightly_mention</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>['barracuda', 'always', 'hdd', 'come', 'upgrade', 'pc', 'buy', 'drive', '', '']</t>
+          <t>['inherently', 'degrade', 'lightly', 'mention', 'long', 'last', 'decent', 'experience', 'hold', 'flash']</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>['buy pc drive come upgrade hdd always barracuda', 'buy pc drive come upgrade hdd always barracuda', 'buy pc drive come upgrade hdd always barracuda']</t>
+          <t>['decent desktop computer drive much slow ssd mention hard drive inherently hold datum much long experience lightly use hard drive last far long flash storage degrade year', 'decent desktop computer drive much slow ssd mention hard drive inherently hold datum much long experience lightly use hard drive last far long flash storage degrade year', 'decent desktop computer drive much slow ssd mention hard drive inherently hold datum much long experience lightly use hard drive last far long flash storage degrade year']</t>
         </is>
       </c>
     </row>
@@ -2994,17 +2994,17 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>96_online_window_last_format</t>
+          <t>96_separate_cheap_cable_sata</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>['online', 'window', 'last', 'format', 'look', 'issue', 'time', '', '', '']</t>
+          <t>['separate', 'cheap', 'cable', 'sata', 'purchase', '', '', '', '', '']</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>['issue look online format window last time window', 'issue look online format window last time window', 'issue look online format window last time window']</t>
+          <t>['sata cable purchase separate cheap', 'sata cable purchase separate cheap', 'sata cable purchase separate cheap']</t>
         </is>
       </c>
     </row>
@@ -3020,17 +3020,17 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>97_connector_power_cable_extra</t>
+          <t>97_note___</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>['connector', 'power', 'cable', 'extra', 'sata', 'come', 'pc', '', '', '']</t>
+          <t>['note', '', '', '', '', '', '', '', '', '']</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>['come sata cable power connector pc extra power connector', 'come sata cable power connector pc extra power connector', 'come sata cable power connector pc extra power connector']</t>
+          <t>['note', 'note', 'note']</t>
         </is>
       </c>
     </row>
@@ -3046,17 +3046,17 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>98_llike_post_really_</t>
+          <t>98_happy___</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>['llike', 'post', 'really', '', '', '', '', '', '', '']</t>
+          <t>['happy', '', '', '', '', '', '', '', '', '']</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>['really llike post', 'really llike post', 'really llike post']</t>
+          <t>['happy', 'happy', 'happy']</t>
         </is>
       </c>
     </row>
